--- a/files/Mac_AP_Range.xlsx
+++ b/files/Mac_AP_Range.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,14 +467,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mjsenzw</t>
+          <t>rmensur</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43707.425</v>
+        <v>43705.45833333334</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>43707.47986111111</v>
+        <v>43705.46319444444</v>
       </c>
     </row>
     <row r="3">
@@ -485,14 +485,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>umd</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43707.425</v>
+        <v>43705.45972222222</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>43707.42916666667</v>
+        <v>43705.45972222222</v>
       </c>
     </row>
     <row r="4">
@@ -503,14 +503,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nelivow</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43707.43680555555</v>
+        <v>43705.46041666667</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43707.43680555555</v>
+        <v>43705.46458333333</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43707.44166666667</v>
+        <v>43705.46041666667</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43707.44791666666</v>
+        <v>43705.46041666667</v>
       </c>
     </row>
     <row r="6">
@@ -539,14 +539,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>umd</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43707.44791666666</v>
+        <v>43705.46041666667</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43707.44791666666</v>
+        <v>43705.4625</v>
       </c>
     </row>
     <row r="7">
@@ -557,14 +557,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43707.44791666666</v>
+        <v>43705.46388888889</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43707.45208333333</v>
+        <v>43705.47708333333</v>
       </c>
     </row>
     <row r="8">
@@ -575,14 +575,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ppriow</t>
+          <t>rmensur</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43707.46111111111</v>
+        <v>43705.46458333333</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43707.46458333333</v>
+        <v>43705.46458333333</v>
       </c>
     </row>
     <row r="9">
@@ -593,14 +593,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>hcesedew</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43707.46944444445</v>
+        <v>43705.46597222222</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43707.47291666667</v>
+        <v>43705.46597222222</v>
       </c>
     </row>
     <row r="10">
@@ -611,14 +611,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ppriow</t>
+          <t>rmensur</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>43707.50972222222</v>
+        <v>43705.46597222222</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>43707.51319444444</v>
+        <v>43705.46597222222</v>
       </c>
     </row>
     <row r="11">
@@ -629,14 +629,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ppriow</t>
+          <t>rmensur</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>43707.52986111111</v>
+        <v>43705.46666666667</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>43707.53541666667</v>
+        <v>43705.46736111111</v>
       </c>
     </row>
     <row r="12">
@@ -647,14 +647,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>odette</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43707.53541666667</v>
+        <v>43705.46736111111</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43707.53680555556</v>
+        <v>43705.46875</v>
       </c>
     </row>
     <row r="13">
@@ -665,14 +665,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>rmensur</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>43707.53680555556</v>
+        <v>43705.46736111111</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>43707.54166666666</v>
+        <v>43705.46805555555</v>
       </c>
     </row>
     <row r="14">
@@ -683,14 +683,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>rmensur</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43707.55416666667</v>
+        <v>43705.46875</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>43707.55416666667</v>
+        <v>43705.47013888889</v>
       </c>
     </row>
     <row r="15">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43707.55625</v>
+        <v>43705.46875</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43707.56388888889</v>
+        <v>43705.46944444445</v>
       </c>
     </row>
     <row r="16">
@@ -719,14 +719,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nelivow</t>
+          <t>odette</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43707.56111111111</v>
+        <v>43705.46944444445</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>43707.56388888889</v>
+        <v>43705.47083333333</v>
       </c>
     </row>
     <row r="17">
@@ -737,14 +737,1688 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>43705.46944444445</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>43705.46944444445</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>43705.46944444445</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>43705.47361111111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>invitede-pansew</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>43707.64930555555</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>43707.65277777778</v>
+      <c r="C19" s="2" t="n">
+        <v>43705.47013888889</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>43705.47708333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rmensur</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>43705.47013888889</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>43705.47222222222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>43705.47222222222</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>43705.47222222222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mjpence</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>43705.47291666667</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>43705.47430555556</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mjsenzw</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>43705.47291666667</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>43705.52986111111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>43705.47291666667</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>43705.47291666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>43705.47361111111</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>43705.47361111111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>43705.47430555556</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>43705.47430555556</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>43705.47430555556</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>43705.475</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rmensur</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>43705.47430555556</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>43705.47569444445</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>43705.47569444445</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>43705.47569444445</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>43705.47569444445</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>43705.47638888889</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>43705.47638888889</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>43705.47638888889</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>43705.47708333333</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>43705.47777777778</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>43705.47708333333</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>43705.48055555556</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>43705.47777777778</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>43705.50555555556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>43705.47777777778</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>43705.47916666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rmensur</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>43705.47847222222</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>43705.48055555556</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>43705.47916666666</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>43705.49166666667</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>43705.48055555556</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>43705.48055555556</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>43705.48194444444</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>43705.49722222222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>mjsenzw</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>43705.48333333333</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>43705.48541666667</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>mjpence</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>43705.48472222222</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>43705.48472222222</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>mjpence</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>43705.49305555555</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>43705.49652777778</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>43705.49791666667</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>43705.50069444445</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>43705.5</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>43705.51111111111</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>jlepezw</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>43705.50208333333</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>43705.62361111111</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>43705.50763888889</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>43705.50833333333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>43705.50972222222</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>43705.51041666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rmensur</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>43705.51180555556</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>43705.5125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>43705.51180555556</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>43705.51527777778</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rmensur</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>43705.51458333333</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>43705.51458333333</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rmensur</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>43705.51527777778</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>43705.51527777778</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rmensur</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>43705.51597222222</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>43705.51944444444</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>jmelinew</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>43705.51944444444</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>43705.52222222222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>43705.52708333333</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>43705.53125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>nceriew</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>43705.52777777778</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>43705.52777777778</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>nceriew</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>43705.52777777778</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>43705.53125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ecempesw</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>43705.53125</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>43705.53819444445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>43705.53958333333</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>43705.54305555556</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>43705.54444444444</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>43705.56319444445</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ecempesw</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>43705.54444444444</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>43705.60555555556</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>43705.54583333333</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>43705.56875</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>hcesedew</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>43705.55555555555</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>43705.55625</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>nelivow</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>43705.56041666667</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>43705.56388888889</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>43705.64861111111</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>43705.65208333333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ecempesw</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>43705.67638888889</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>43705.67708333334</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ecempesw</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>43705.69305555556</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>43705.70277777778</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>hcesedew</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>43705.76597222222</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>43705.76597222222</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>hcesedew</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>43705.77083333334</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>43705.77083333334</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>hcesedew</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>43705.78680555556</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>43705.78958333333</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>umd</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>43706.36805555555</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>43706.36875</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>43706.37083333333</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>43706.37152777778</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>43706.38472222222</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>43706.47638888889</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>43706.39375</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>43706.39583333334</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>mjpence</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>43706.39375</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>43706.39444444444</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>mjpence</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>43706.39444444444</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>43706.39444444444</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>umd</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>43706.39513888889</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>43706.39583333334</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ppriow</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>43706.39861111111</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>43706.40347222222</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>43706.40138888889</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>43706.40555555555</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>mjsenzw</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>43706.41597222222</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>43706.41666666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>43706.42152777778</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>43706.425</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>hcesedew</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>43706.43055555555</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>43706.43402777778</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>43706.43263888889</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>43706.43263888889</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>43706.43541666667</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>43706.43680555555</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>43706.46388888889</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>43706.47013888889</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>43706.47569444445</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>43706.47569444445</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>43706.47638888889</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>43706.47916666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>43706.47916666666</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>43706.51805555556</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>43706.48194444444</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>43706.48263888889</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>43706.48263888889</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>43706.48263888889</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ppriow</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>43706.48263888889</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>43706.48263888889</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>odette</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>43706.50902777778</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>43706.51388888889</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>43706.525</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>43706.52569444444</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>nelivow</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>43706.54236111111</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>43706.54652777778</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ppriow</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>43706.54722222222</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>43706.55208333334</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>43706.56527777778</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>43706.56736111111</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>43706.93263888889</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>43706.93402777778</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>43707.37083333333</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>43707.40277777778</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>umd</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>43707.39097222222</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>43707.39166666667</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>umd</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>43707.39791666667</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>43707.39861111111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>umd</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>43707.4</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>43707.40347222222</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>umd</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>43707.40347222222</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>43707.42430555556</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>43707.41319444445</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>43707.43819444445</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>mjsenzw</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>43707.425</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>43707.47986111111</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>umd</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>43707.425</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>43707.42916666667</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>nelivow</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>43707.43680555555</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>43707.43680555555</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>43707.44166666667</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>43707.44791666666</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>umd</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>43707.44791666666</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>43707.44791666666</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>43707.44791666666</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>43707.45208333333</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ppriow</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>43707.46111111111</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>43707.46458333333</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>04-18-D6-22-94-E7:UM</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>hcesedew</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>43707.46944444445</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>43707.47291666667</v>
       </c>
     </row>
   </sheetData>
